--- a/Többi cucc/Nyílt tanítási órák (1).xlsx
+++ b/Többi cucc/Nyílt tanítási órák (1).xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Lébár Olivér\web2023-\adatbazis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\munkák\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A85B06E-0486-432F-B31F-D2C9BBFCDD37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72A777-3F4D-47B7-BAF5-155DA1192546}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Munka1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Munka1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="175">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -506,24 +506,19 @@
     <t>10.h</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Horváth Andrea
-</t>
-  </si>
-  <si>
     <t>angol</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Hauptman Henrik</t>
+    <t>Dr. Horváth Andrea</t>
   </si>
   <si>
     <t>Déri Ildikó</t>
   </si>
   <si>
-    <t>10C</t>
+    <t>10B</t>
   </si>
   <si>
-    <t>10B</t>
+    <t>10C</t>
   </si>
   <si>
     <t>8.H</t>
@@ -532,78 +527,43 @@
     <t>angol nyelv</t>
   </si>
   <si>
-    <t>Páva Zoltánné/</t>
+    <t>német</t>
+  </si>
+  <si>
+    <t>Páva Zoltánné</t>
   </si>
   <si>
     <t>Füstösné Cs. Katalin</t>
   </si>
   <si>
-    <t>német</t>
+    <t xml:space="preserve">10.C </t>
   </si>
   <si>
-    <t xml:space="preserve">10.C 
-</t>
+    <t>vállalkozási ismeretek</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-9.C</t>
+    <t>12.D</t>
   </si>
   <si>
-    <t xml:space="preserve">Némethné Kalocsai Krisztina
-</t>
+    <t>Programozási alapok</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Vránicsné Bődi Ildikó </t>
+    <t>Hálózatok</t>
   </si>
   <si>
-    <t>Galambfalvi Rozália</t>
+    <t>Mészáros Róbert</t>
+  </si>
+  <si>
+    <t>Papné kigyósi Ildikó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.H </t>
   </si>
   <si>
     <t>francia nyelv</t>
   </si>
   <si>
-    <t>12.D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Némethné Kalocsai Krisztina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.B
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-12.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papp Péter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mészáros Róbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angol
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-német</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Páva Zoltánné
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Papné Kigyósi Ildikó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bárdosi Erika
-</t>
+    <t>Galambfalvi Rozália</t>
   </si>
   <si>
     <t>programozási alapok</t>
@@ -725,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1068,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,25 +1295,22 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,10 +1318,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,12 +1544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CED0B4-2874-4CFC-8BF9-AF22C248A615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2383A-4E98-4AA4-95A9-9EAA8B448380}">
   <dimension ref="A1:AC1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E94" sqref="E94"/>
+      <selection pane="topRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1578,10 +1557,9 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="11" width="34.85546875" customWidth="1"/>
@@ -1611,7 +1589,7 @@
       <c r="F1" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="56" t="s">
         <v>152</v>
       </c>
       <c r="Q1" s="3"/>
@@ -1868,7 +1846,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30.75" thickBot="1">
+    <row r="9" spans="1:29" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -1879,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>155</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>154</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" t="s">
@@ -1902,7 +1880,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30">
+    <row r="10" spans="1:29">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -1913,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" t="s">
@@ -2094,7 +2072,6 @@
       <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2129,7 +2106,6 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2158,13 +2134,12 @@
         <v>90</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2184,7 +2159,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>20</v>
@@ -2201,7 +2176,6 @@
       <c r="G18" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2424,7 +2398,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+    <row r="25" spans="1:29">
       <c r="A25" s="21" t="s">
         <v>118</v>
       </c>
@@ -2635,21 +2609,30 @@
         <v>8</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="51" t="s">
         <v>1</v>
       </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -2669,15 +2652,15 @@
         <v>8</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="70" t="s">
         <v>163</v>
       </c>
       <c r="F32" s="17"/>
@@ -2685,6 +2668,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2727,6 +2711,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3225,7 +3210,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="21" customHeight="1">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>89</v>
       </c>
@@ -3268,21 +3253,21 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" ht="39" customHeight="1">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="72" t="s">
-        <v>165</v>
+      <c r="B46" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="73" t="s">
-        <v>167</v>
+      <c r="D46" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>106</v>
       </c>
       <c r="F46" s="63"/>
       <c r="G46" s="51" t="s">
@@ -3311,21 +3296,21 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" ht="30" customHeight="1">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1">
       <c r="A47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="72" t="s">
-        <v>166</v>
+      <c r="B47" s="73" t="s">
+        <v>19</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>168</v>
+        <v>93</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="63"/>
       <c r="G47" s="51" t="s">
@@ -3488,16 +3473,16 @@
         <v>118</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F51" s="65"/>
       <c r="G51" s="51" t="s">
@@ -3531,13 +3516,13 @@
         <v>118</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>18</v>
@@ -3856,6 +3841,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3882,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>149</v>
@@ -3898,6 +3884,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3919,7 +3906,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="34.5" customHeight="1">
+    <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="21" t="s">
         <v>8</v>
       </c>
@@ -3930,16 +3917,17 @@
         <v>29</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="74" t="s">
-        <v>172</v>
+        <v>105</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="F61" s="69"/>
       <c r="G61" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3982,6 +3970,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4003,29 +3992,30 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="30.75" customHeight="1">
+    <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="75" t="s">
-        <v>173</v>
+      <c r="B63" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="74" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G63" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4047,29 +4037,30 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="34.5" customHeight="1">
+    <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="75" t="s">
-        <v>174</v>
+      <c r="B64" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64" s="74" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4112,6 +4103,7 @@
         <v>2</v>
       </c>
       <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4133,7 +4125,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="25.5" customHeight="1">
+    <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>62</v>
       </c>
@@ -4154,6 +4146,7 @@
         <v>2</v>
       </c>
       <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4175,7 +4168,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="25.5" customHeight="1">
+    <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="21" t="s">
         <v>62</v>
       </c>
@@ -4185,19 +4178,20 @@
       <c r="C67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="74" t="s">
-        <v>179</v>
+      <c r="D67" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>162</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G67" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4219,29 +4213,30 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="32.25" customHeight="1">
+    <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>180</v>
+      <c r="D68" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>170</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="G68" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4263,29 +4258,30 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="32.25" customHeight="1">
+    <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>181</v>
+      <c r="D69" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>28</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G69" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4307,7 +4303,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="31.5" customHeight="1">
+    <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="21" t="s">
         <v>62</v>
       </c>
@@ -4317,19 +4313,20 @@
       <c r="C70" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="74" t="s">
-        <v>180</v>
+      <c r="D70" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>170</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G70" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4372,6 +4369,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4438,21 +4436,21 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="27" customHeight="1" thickBot="1">
+    <row r="73" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C73" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>179</v>
+      <c r="D73" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="F73" s="69"/>
       <c r="G73" s="51" t="s">
@@ -4481,7 +4479,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="34.5" customHeight="1" thickBot="1">
+    <row r="74" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="31" t="s">
         <v>62</v>
       </c>
@@ -4491,11 +4489,11 @@
       <c r="C74" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="74" t="s">
-        <v>180</v>
+      <c r="D74" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="F74" s="69"/>
       <c r="G74" s="51" t="s">
@@ -4588,6 +4586,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4630,6 +4629,7 @@
         <v>2</v>
       </c>
       <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -4672,6 +4672,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4710,12 +4711,13 @@
         <v>101</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G79" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4748,18 +4750,19 @@
         <v>46</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G80" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4798,12 +4801,13 @@
         <v>99</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G81" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -4842,12 +4846,13 @@
         <v>99</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G82" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -4890,6 +4895,7 @@
         <v>2</v>
       </c>
       <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -4932,6 +4938,7 @@
         <v>2</v>
       </c>
       <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -4974,6 +4981,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -5016,6 +5024,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5060,6 +5069,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5102,6 +5112,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5123,8 +5134,8 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="31" t="s">
+    <row r="89" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A89" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="52" t="s">
@@ -5146,6 +5157,7 @@
         <v>2</v>
       </c>
       <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5176,6 +5188,7 @@
       <c r="F90" s="51"/>
       <c r="G90" s="51"/>
       <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -5206,6 +5219,7 @@
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
       <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -33718,10 +33732,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{777B0FEC-551C-4110-98AE-1DEFCE01EBAC}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{2CF28B8F-559D-493B-B8FF-8D0E28BE7B5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33729,9 +33743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I74" sqref="I74"/>
+      <selection pane="topRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33754,12 +33768,12 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="2"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -34564,12 +34578,12 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="81"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="2"/>
       <c r="G27" s="51"/>
       <c r="H27" s="3"/>
@@ -35625,12 +35639,12 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="51"/>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="79"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="78"/>
       <c r="F53" s="67"/>
       <c r="G53" s="51"/>
       <c r="H53" s="3"/>
@@ -35761,6 +35775,7 @@
       </c>
       <c r="G56" s="51"/>
       <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -35801,6 +35816,7 @@
       <c r="F57" s="69"/>
       <c r="G57" s="51"/>
       <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -35841,6 +35857,7 @@
       <c r="F58" s="69"/>
       <c r="G58" s="51"/>
       <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -35883,6 +35900,7 @@
       </c>
       <c r="G59" s="51"/>
       <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -35923,6 +35941,7 @@
       <c r="F60" s="69"/>
       <c r="G60" s="51"/>
       <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -35963,6 +35982,7 @@
       <c r="F61" s="69"/>
       <c r="G61" s="51"/>
       <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -36005,6 +36025,7 @@
       </c>
       <c r="G62" s="51"/>
       <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -36039,7 +36060,7 @@
       <c r="D63" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="75" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="69" t="s">
@@ -36047,6 +36068,7 @@
       </c>
       <c r="G63" s="51"/>
       <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -36087,6 +36109,7 @@
       <c r="F64" s="69"/>
       <c r="G64" s="51"/>
       <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -36252,6 +36275,7 @@
       <c r="F68" s="69"/>
       <c r="G68" s="51"/>
       <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -36292,6 +36316,7 @@
       <c r="F69" s="69"/>
       <c r="G69" s="51"/>
       <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -36332,6 +36357,7 @@
       <c r="F70" s="69"/>
       <c r="G70" s="51"/>
       <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -36374,6 +36400,7 @@
       </c>
       <c r="G71" s="51"/>
       <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -36416,6 +36443,7 @@
       </c>
       <c r="G72" s="51"/>
       <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -36456,6 +36484,7 @@
       <c r="F73" s="69"/>
       <c r="G73" s="51"/>
       <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -36496,6 +36525,7 @@
       <c r="F74" s="69"/>
       <c r="G74" s="51"/>
       <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -36536,6 +36566,7 @@
       <c r="F75" s="69"/>
       <c r="G75" s="51"/>
       <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -36576,6 +36607,7 @@
       <c r="F76" s="69"/>
       <c r="G76" s="51"/>
       <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -36618,6 +36650,7 @@
       </c>
       <c r="G77" s="51"/>
       <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -36658,6 +36691,7 @@
       <c r="F78" s="69"/>
       <c r="G78" s="51"/>
       <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -36679,8 +36713,8 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="31" t="s">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A79" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="52" t="s">
@@ -36700,6 +36734,7 @@
       </c>
       <c r="G79" s="51"/>
       <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -36730,6 +36765,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -36760,6 +36796,7 @@
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
